--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirza\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8E1753B-DA3A-4CFC-AC65-C7FDB2D2FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268B6C9-C129-4CB4-A0D2-BE815727B78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{830EC297-DD94-4644-93ED-2B8924B98BCB}"/>
   </bookViews>
@@ -24,10 +24,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Scenario 1 Prompt</t>
+  </si>
+  <si>
+    <t>Scenario 1 AI Assistance</t>
+  </si>
+  <si>
+    <t>Scenario 1 Score</t>
+  </si>
+  <si>
+    <t>Scenario 2 Prompt</t>
+  </si>
+  <si>
+    <t>Scenario 2 AI Assistance</t>
+  </si>
+  <si>
+    <t>Scenario 2 Score</t>
+  </si>
+  <si>
+    <t>Scenario 3 Prompt</t>
+  </si>
+  <si>
+    <t>Scenario 3 AI Assistance</t>
+  </si>
+  <si>
+    <t>Scenario 3 Score</t>
+  </si>
+  <si>
+    <t>mirza</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +423,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64538741-00D2-4E6B-9461-678BFC088427}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="52.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>